--- a/Example/Excel/Test.xlsx
+++ b/Example/Excel/Test.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE4810A-9F7E-4FC2-81A7-9EF3FDBAA0EF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223AE4BF-C931-42DB-9FD9-D67DF01DAF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="45" windowWidth="28710" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +111,14 @@
   </si>
   <si>
     <t>信息1|信息2|信息9|</t>
+  </si>
+  <si>
+    <t>int64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -442,7 +446,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -452,53 +456,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -506,7 +510,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -515,7 +519,7 @@
         <v>1000</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -523,7 +527,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>101</v>
@@ -532,7 +536,7 @@
         <v>1001</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -540,7 +544,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>102</v>
@@ -549,7 +553,7 @@
         <v>1002</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -557,7 +561,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>103</v>
@@ -566,7 +570,7 @@
         <v>1003</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -574,7 +578,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>104</v>
@@ -583,7 +587,7 @@
         <v>1004</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -591,7 +595,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>105</v>
@@ -600,7 +604,7 @@
         <v>1005</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -608,7 +612,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>106</v>
@@ -617,7 +621,7 @@
         <v>1006</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Example/Excel/Test.xlsx
+++ b/Example/Excel/Test.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223AE4BF-C931-42DB-9FD9-D67DF01DAF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6F35D0-1EA9-4AD0-8907-D0839D054747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>attack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,6 +114,10 @@
   </si>
   <si>
     <t>KEY_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp_num</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,7 +446,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -459,50 +459,50 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -510,7 +510,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -519,7 +519,7 @@
         <v>1000</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -527,7 +527,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>101</v>
@@ -536,7 +536,7 @@
         <v>1001</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -544,7 +544,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>102</v>
@@ -553,7 +553,7 @@
         <v>1002</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -561,7 +561,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>103</v>
@@ -570,7 +570,7 @@
         <v>1003</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -578,7 +578,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>104</v>
@@ -587,7 +587,7 @@
         <v>1004</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -595,7 +595,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>105</v>
@@ -604,7 +604,7 @@
         <v>1005</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -612,7 +612,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>106</v>
@@ -621,7 +621,7 @@
         <v>1006</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
